--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_磐石组.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_磐石组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.0 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.0 新特性|Fix Bug'!$A$1:$W$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -108,40 +108,22 @@
     <t>重要</t>
   </si>
   <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>财务提现列表导出功能</t>
-  </si>
-  <si>
     <t>New Features</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>张浩</t>
-  </si>
-  <si>
     <t>磐石组</t>
   </si>
   <si>
     <t>低</t>
   </si>
   <si>
-    <t>杨恒</t>
-  </si>
-  <si>
     <t>通过</t>
   </si>
   <si>
     <t>能</t>
-  </si>
-  <si>
-    <t>PM-1361</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -343,30 +325,30 @@
     <t>不紧急</t>
   </si>
   <si>
-    <t>运营报表一期</t>
+    <t>营业报表一期</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
+    <t>房东PC、BS</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>PM-176</t>
-  </si>
-  <si>
-    <t>孙苏文、嵇智</t>
+    <t>宋武</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>张勋</t>
+    <t>李傲</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-722</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -377,6 +359,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -384,6 +367,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -391,6 +375,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -398,12 +383,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -411,6 +398,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -418,12 +406,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -431,12 +421,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -444,34 +436,40 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -533,12 +531,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1092,10 +1084,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X170"/>
+  <dimension ref="A1:X169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1575,7 +1567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="59" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -1583,123 +1575,87 @@
         <v>23</v>
       </c>
       <c r="C2" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="F2" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="H2" s="67">
+        <v>42846</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="67">
+        <v>42846</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="N2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="O2" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="67">
-        <v>42843</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="67">
-        <v>42843</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="75" t="s">
+      <c r="Q2" s="67">
+        <v>42846</v>
+      </c>
+      <c r="R2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="67">
-        <v>42843</v>
-      </c>
-      <c r="R2" s="75" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="81" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="T2" s="81"/>
       <c r="U2" s="72"/>
       <c r="V2" s="80"/>
-      <c r="W2" s="82"/>
+      <c r="W2" s="84"/>
       <c r="X2" s="83"/>
     </row>
-    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5">
-      <c r="A3" s="64">
-        <v>1</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="67">
-        <v>42843</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="67">
-        <v>42843</v>
-      </c>
+    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="66"/>
-      <c r="L3" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="67">
-        <v>42843</v>
-      </c>
-      <c r="R3" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" s="81"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
       <c r="U3" s="72"/>
       <c r="V3" s="80"/>
-      <c r="W3" s="84"/>
+      <c r="W3" s="82"/>
       <c r="X3" s="83"/>
     </row>
-    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1722,7 +1678,7 @@
       <c r="T4" s="72"/>
       <c r="U4" s="72"/>
       <c r="V4" s="80"/>
-      <c r="W4" s="82"/>
+      <c r="W4" s="84"/>
       <c r="X4" s="83"/>
     </row>
     <row r="5" spans="1:24" s="59" customFormat="1" ht="16.5">
@@ -1807,7 +1763,7 @@
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -1822,9 +1778,9 @@
       <c r="P8" s="75"/>
       <c r="Q8" s="67"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="80"/>
       <c r="W8" s="84"/>
       <c r="X8" s="83"/>
@@ -1833,7 +1789,7 @@
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -1844,13 +1800,13 @@
       <c r="L9" s="75"/>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="67"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="80"/>
       <c r="W9" s="84"/>
       <c r="X9" s="83"/>
@@ -1870,7 +1826,7 @@
       <c r="L10" s="75"/>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
-      <c r="O10" s="76"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="75"/>
       <c r="Q10" s="67"/>
       <c r="R10" s="75"/>
@@ -1968,7 +1924,7 @@
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="66"/>
       <c r="L14" s="75"/>
@@ -1981,7 +1937,7 @@
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="84"/>
       <c r="X14" s="83"/>
     </row>
@@ -2022,22 +1978,22 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="75"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
-      <c r="P16" s="75"/>
+      <c r="P16" s="78"/>
       <c r="Q16" s="67"/>
-      <c r="R16" s="75"/>
+      <c r="R16" s="78"/>
       <c r="S16" s="72"/>
       <c r="T16" s="72"/>
       <c r="U16" s="72"/>
       <c r="V16" s="72"/>
-      <c r="W16" s="84"/>
+      <c r="W16" s="86"/>
       <c r="X16" s="83"/>
     </row>
-    <row r="17" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -2048,22 +2004,21 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="75"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
-      <c r="P17" s="78"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="67"/>
-      <c r="R17" s="78"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
       <c r="V17" s="72"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="83"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5">
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -2079,7 +2034,7 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
-      <c r="P18" s="75"/>
+      <c r="P18" s="72"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="75"/>
       <c r="S18" s="72"/>
@@ -2088,7 +2043,7 @@
       <c r="V18" s="72"/>
       <c r="W18" s="73"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -2104,7 +2059,7 @@
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
-      <c r="P19" s="72"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="67"/>
       <c r="R19" s="75"/>
       <c r="S19" s="72"/>
@@ -2113,32 +2068,32 @@
       <c r="V19" s="72"/>
       <c r="W19" s="73"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="67"/>
-      <c r="K20" s="79"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="75"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="80"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
       <c r="Q20" s="67"/>
       <c r="R20" s="75"/>
       <c r="S20" s="72"/>
       <c r="T20" s="72"/>
       <c r="U20" s="72"/>
       <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5">
+      <c r="W20" s="84"/>
+    </row>
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -2163,7 +2118,7 @@
       <c r="V21" s="72"/>
       <c r="W21" s="84"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -2188,7 +2143,7 @@
       <c r="V22" s="72"/>
       <c r="W22" s="84"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -2207,13 +2162,13 @@
       <c r="P23" s="75"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="84"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5">
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="88"/>
+    </row>
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -2232,13 +2187,13 @@
       <c r="P24" s="75"/>
       <c r="Q24" s="67"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
       <c r="W24" s="88"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -2250,7 +2205,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
       <c r="K25" s="66"/>
-      <c r="L25" s="75"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="75"/>
@@ -2260,10 +2215,10 @@
       <c r="S25" s="89"/>
       <c r="T25" s="89"/>
       <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
+      <c r="V25" s="90"/>
       <c r="W25" s="88"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -2285,10 +2240,10 @@
       <c r="S26" s="89"/>
       <c r="T26" s="89"/>
       <c r="U26" s="89"/>
-      <c r="V26" s="90"/>
+      <c r="V26" s="89"/>
       <c r="W26" s="88"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -2300,7 +2255,7 @@
       <c r="I27" s="66"/>
       <c r="J27" s="67"/>
       <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
       <c r="O27" s="75"/>
@@ -2313,7 +2268,7 @@
       <c r="V27" s="89"/>
       <c r="W27" s="88"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -2332,13 +2287,13 @@
       <c r="P28" s="75"/>
       <c r="Q28" s="67"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="88"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5">
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="75"/>
+    </row>
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -2357,13 +2312,13 @@
       <c r="P29" s="75"/>
       <c r="Q29" s="67"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="75"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5">
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="84"/>
+    </row>
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
@@ -2388,7 +2343,7 @@
       <c r="V30" s="72"/>
       <c r="W30" s="84"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -2413,7 +2368,7 @@
       <c r="V31" s="72"/>
       <c r="W31" s="84"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -2424,7 +2379,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="66"/>
       <c r="J32" s="67"/>
-      <c r="K32" s="66"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="75"/>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
@@ -2432,36 +2387,36 @@
       <c r="P32" s="75"/>
       <c r="Q32" s="67"/>
       <c r="R32" s="75"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="84"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="88"/>
     </row>
     <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="69"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="66"/>
-      <c r="F33" s="70"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="66"/>
       <c r="L33" s="75"/>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
-      <c r="O33" s="75"/>
+      <c r="O33" s="66"/>
       <c r="P33" s="75"/>
       <c r="Q33" s="67"/>
       <c r="R33" s="75"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="88"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="82"/>
     </row>
     <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="64"/>
@@ -2486,7 +2441,7 @@
       <c r="T34" s="72"/>
       <c r="U34" s="72"/>
       <c r="V34" s="72"/>
-      <c r="W34" s="82"/>
+      <c r="W34" s="84"/>
     </row>
     <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="64"/>
@@ -2717,25 +2672,25 @@
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
       <c r="H44" s="67"/>
-      <c r="I44" s="66"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="67"/>
       <c r="K44" s="66"/>
       <c r="L44" s="75"/>
-      <c r="M44" s="66"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
       <c r="P44" s="75"/>
       <c r="Q44" s="67"/>
       <c r="R44" s="75"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
       <c r="W44" s="84"/>
     </row>
     <row r="45" spans="1:23" ht="16.5">
@@ -2767,14 +2722,14 @@
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="68"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
       <c r="G46" s="66"/>
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67"/>
-      <c r="K46" s="66"/>
+      <c r="K46" s="79"/>
       <c r="L46" s="75"/>
       <c r="M46" s="75"/>
       <c r="N46" s="66"/>
@@ -2782,11 +2737,11 @@
       <c r="P46" s="75"/>
       <c r="Q46" s="67"/>
       <c r="R46" s="75"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="84"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="73"/>
     </row>
     <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="64"/>
@@ -2939,24 +2894,24 @@
       <c r="W52" s="73"/>
     </row>
     <row r="53" spans="1:23" ht="16.5">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="66"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="74"/>
       <c r="K53" s="79"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="75"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="73"/>
       <c r="S53" s="72"/>
       <c r="T53" s="72"/>
       <c r="U53" s="72"/>
@@ -3345,7 +3300,7 @@
       <c r="D69" s="73"/>
       <c r="E69" s="72"/>
       <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
+      <c r="G69" s="72"/>
       <c r="H69" s="74"/>
       <c r="I69" s="72"/>
       <c r="J69" s="74"/>
@@ -3494,7 +3449,7 @@
       <c r="C75" s="72"/>
       <c r="D75" s="73"/>
       <c r="E75" s="72"/>
-      <c r="F75" s="66"/>
+      <c r="F75" s="72"/>
       <c r="G75" s="72"/>
       <c r="H75" s="74"/>
       <c r="I75" s="72"/>
@@ -3588,7 +3543,7 @@
       <c r="V78" s="72"/>
       <c r="W78" s="73"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5">
+    <row r="79" spans="1:23">
       <c r="A79" s="72"/>
       <c r="B79" s="72"/>
       <c r="C79" s="72"/>
@@ -3602,7 +3557,7 @@
       <c r="K79" s="79"/>
       <c r="L79" s="72"/>
       <c r="M79" s="72"/>
-      <c r="N79" s="66"/>
+      <c r="N79" s="72"/>
       <c r="O79" s="72"/>
       <c r="P79" s="72"/>
       <c r="Q79" s="74"/>
@@ -5007,10 +4962,6 @@
       <c r="P135" s="72"/>
       <c r="Q135" s="74"/>
       <c r="R135" s="73"/>
-      <c r="S135" s="72"/>
-      <c r="T135" s="72"/>
-      <c r="U135" s="72"/>
-      <c r="V135" s="72"/>
       <c r="W135" s="73"/>
     </row>
     <row r="136" spans="1:23">
@@ -5727,31 +5678,10 @@
       <c r="R169" s="73"/>
       <c r="W169" s="73"/>
     </row>
-    <row r="170" spans="1:23">
-      <c r="A170" s="72"/>
-      <c r="B170" s="72"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="73"/>
-      <c r="E170" s="72"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="72"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="72"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="79"/>
-      <c r="L170" s="72"/>
-      <c r="M170" s="72"/>
-      <c r="N170" s="72"/>
-      <c r="O170" s="72"/>
-      <c r="P170" s="72"/>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="73"/>
-      <c r="W170" s="73"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N78">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5766,7 +5696,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 V1:V1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5778,7 +5708,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5815,55 +5744,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="L1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="N1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="P1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>51</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>22</v>
@@ -5871,109 +5800,109 @@
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" ht="49.5">
       <c r="A2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="I2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="J2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="K2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="L2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="M2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="N2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="O2" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="P2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="51" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>66</v>
       </c>
       <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:18" s="30" customFormat="1" ht="33">
       <c r="A3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="I3" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="J3" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" s="51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="R3" s="51"/>
     </row>
@@ -6025,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="91" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -6040,34 +5969,34 @@
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>22</v>
@@ -6228,7 +6157,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6260,40 +6189,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6542,7 +6471,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6574,40 +6503,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6856,7 +6785,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6888,40 +6817,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -7172,7 +7101,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7204,40 +7133,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -7482,28 +7411,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">

--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_磐石组.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_磐石组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.0 新特性|Fix Bug'!$A$1:$W$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.0 新特性|Fix Bug'!$A$1:$W$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -108,22 +108,40 @@
     <t>重要</t>
   </si>
   <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>财务提现列表导出功能</t>
+  </si>
+  <si>
     <t>New Features</t>
   </si>
   <si>
+    <t>BS</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
+    <t>张浩</t>
+  </si>
+  <si>
     <t>磐石组</t>
   </si>
   <si>
     <t>低</t>
   </si>
   <si>
+    <t>杨恒</t>
+  </si>
+  <si>
     <t>通过</t>
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>PM-1361</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -325,30 +343,30 @@
     <t>不紧急</t>
   </si>
   <si>
-    <t>营业报表一期</t>
+    <t>运营报表一期</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC、BS</t>
+    <t>房东PC</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>宋武</t>
+    <t>PM-176</t>
+  </si>
+  <si>
+    <t>孙苏文、嵇智</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>李傲</t>
+    <t>张勋</t>
     <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM-722</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -359,7 +377,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -367,7 +384,6 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -375,7 +391,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -383,14 +398,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -398,7 +411,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -406,14 +418,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -421,14 +431,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -436,40 +444,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -531,6 +533,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1084,10 +1092,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X169"/>
+  <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1567,7 +1575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="2" spans="1:24" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -1575,87 +1583,123 @@
         <v>23</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>96</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="67">
-        <v>42846</v>
+        <v>42843</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" s="67">
-        <v>42846</v>
+        <v>42843</v>
       </c>
       <c r="K2" s="66"/>
-      <c r="L2" s="101" t="s">
-        <v>98</v>
+      <c r="L2" s="75" t="s">
+        <v>29</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="67">
-        <v>42846</v>
+        <v>42843</v>
       </c>
       <c r="R2" s="75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S2" s="81" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T2" s="81"/>
       <c r="U2" s="72"/>
       <c r="V2" s="80"/>
-      <c r="W2" s="84"/>
+      <c r="W2" s="82"/>
       <c r="X2" s="83"/>
     </row>
-    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="67">
+        <v>42843</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="67">
+        <v>42843</v>
+      </c>
       <c r="K3" s="66"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
+      <c r="L3" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>42843</v>
+      </c>
+      <c r="R3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="81"/>
       <c r="U3" s="72"/>
       <c r="V3" s="80"/>
-      <c r="W3" s="82"/>
+      <c r="W3" s="84"/>
       <c r="X3" s="83"/>
     </row>
-    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1678,7 +1722,7 @@
       <c r="T4" s="72"/>
       <c r="U4" s="72"/>
       <c r="V4" s="80"/>
-      <c r="W4" s="84"/>
+      <c r="W4" s="82"/>
       <c r="X4" s="83"/>
     </row>
     <row r="5" spans="1:24" s="59" customFormat="1" ht="16.5">
@@ -1763,7 +1807,7 @@
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="68"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
@@ -1778,9 +1822,9 @@
       <c r="P8" s="75"/>
       <c r="Q8" s="67"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="80"/>
       <c r="W8" s="84"/>
       <c r="X8" s="83"/>
@@ -1789,7 +1833,7 @@
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -1800,13 +1844,13 @@
       <c r="L9" s="75"/>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
-      <c r="O9" s="76"/>
+      <c r="O9" s="66"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="67"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="80"/>
       <c r="W9" s="84"/>
       <c r="X9" s="83"/>
@@ -1826,7 +1870,7 @@
       <c r="L10" s="75"/>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="75"/>
       <c r="Q10" s="67"/>
       <c r="R10" s="75"/>
@@ -1924,7 +1968,7 @@
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="67"/>
       <c r="K14" s="66"/>
       <c r="L14" s="75"/>
@@ -1937,7 +1981,7 @@
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="84"/>
       <c r="X14" s="83"/>
     </row>
@@ -1978,22 +2022,22 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="75"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
-      <c r="P16" s="78"/>
+      <c r="P16" s="75"/>
       <c r="Q16" s="67"/>
-      <c r="R16" s="78"/>
+      <c r="R16" s="75"/>
       <c r="S16" s="72"/>
       <c r="T16" s="72"/>
       <c r="U16" s="72"/>
       <c r="V16" s="72"/>
-      <c r="W16" s="86"/>
+      <c r="W16" s="84"/>
       <c r="X16" s="83"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -2004,21 +2048,22 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
-      <c r="K17" s="79"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="75"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
-      <c r="P17" s="75"/>
+      <c r="P17" s="78"/>
       <c r="Q17" s="67"/>
-      <c r="R17" s="75"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
       <c r="V17" s="72"/>
-      <c r="W17" s="73"/>
-    </row>
-    <row r="18" spans="1:23" ht="16.5">
+      <c r="W17" s="86"/>
+      <c r="X17" s="83"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -2034,7 +2079,7 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
-      <c r="P18" s="72"/>
+      <c r="P18" s="75"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="75"/>
       <c r="S18" s="72"/>
@@ -2043,7 +2088,7 @@
       <c r="V18" s="72"/>
       <c r="W18" s="73"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -2059,7 +2104,7 @@
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
-      <c r="P19" s="80"/>
+      <c r="P19" s="72"/>
       <c r="Q19" s="67"/>
       <c r="R19" s="75"/>
       <c r="S19" s="72"/>
@@ -2068,32 +2113,32 @@
       <c r="V19" s="72"/>
       <c r="W19" s="73"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
-      <c r="D20" s="69"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="66"/>
-      <c r="F20" s="70"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="67"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="79"/>
       <c r="L20" s="75"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="67"/>
       <c r="R20" s="75"/>
       <c r="S20" s="72"/>
       <c r="T20" s="72"/>
       <c r="U20" s="72"/>
       <c r="V20" s="72"/>
-      <c r="W20" s="84"/>
-    </row>
-    <row r="21" spans="1:23" ht="16.5">
+      <c r="W20" s="73"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -2118,7 +2163,7 @@
       <c r="V21" s="72"/>
       <c r="W21" s="84"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -2143,7 +2188,7 @@
       <c r="V22" s="72"/>
       <c r="W22" s="84"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -2162,13 +2207,13 @@
       <c r="P23" s="75"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="88"/>
-    </row>
-    <row r="24" spans="1:23" ht="16.5">
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="84"/>
+    </row>
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -2187,13 +2232,13 @@
       <c r="P24" s="75"/>
       <c r="Q24" s="67"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="88"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -2205,7 +2250,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
       <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="75"/>
@@ -2215,10 +2260,10 @@
       <c r="S25" s="89"/>
       <c r="T25" s="89"/>
       <c r="U25" s="89"/>
-      <c r="V25" s="90"/>
+      <c r="V25" s="89"/>
       <c r="W25" s="88"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -2240,10 +2285,10 @@
       <c r="S26" s="89"/>
       <c r="T26" s="89"/>
       <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
+      <c r="V26" s="90"/>
       <c r="W26" s="88"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -2255,7 +2300,7 @@
       <c r="I27" s="66"/>
       <c r="J27" s="67"/>
       <c r="K27" s="66"/>
-      <c r="L27" s="75"/>
+      <c r="L27" s="66"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
       <c r="O27" s="75"/>
@@ -2268,7 +2313,7 @@
       <c r="V27" s="89"/>
       <c r="W27" s="88"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -2287,13 +2332,13 @@
       <c r="P28" s="75"/>
       <c r="Q28" s="67"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="75"/>
-    </row>
-    <row r="29" spans="1:23" ht="16.5">
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="88"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -2312,13 +2357,13 @@
       <c r="P29" s="75"/>
       <c r="Q29" s="67"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="84"/>
-    </row>
-    <row r="30" spans="1:23" ht="16.5">
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="75"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
@@ -2343,7 +2388,7 @@
       <c r="V30" s="72"/>
       <c r="W30" s="84"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -2368,7 +2413,7 @@
       <c r="V31" s="72"/>
       <c r="W31" s="84"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -2379,7 +2424,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="66"/>
       <c r="J32" s="67"/>
-      <c r="K32" s="70"/>
+      <c r="K32" s="66"/>
       <c r="L32" s="75"/>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
@@ -2387,36 +2432,36 @@
       <c r="P32" s="75"/>
       <c r="Q32" s="67"/>
       <c r="R32" s="75"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="88"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="84"/>
     </row>
     <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
-      <c r="K33" s="66"/>
+      <c r="K33" s="70"/>
       <c r="L33" s="75"/>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="75"/>
       <c r="Q33" s="67"/>
       <c r="R33" s="75"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="82"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="88"/>
     </row>
     <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="64"/>
@@ -2441,7 +2486,7 @@
       <c r="T34" s="72"/>
       <c r="U34" s="72"/>
       <c r="V34" s="72"/>
-      <c r="W34" s="84"/>
+      <c r="W34" s="82"/>
     </row>
     <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="64"/>
@@ -2672,25 +2717,25 @@
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="68"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
       <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
+      <c r="I44" s="66"/>
       <c r="J44" s="67"/>
       <c r="K44" s="66"/>
       <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
       <c r="P44" s="75"/>
       <c r="Q44" s="67"/>
       <c r="R44" s="75"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
       <c r="W44" s="84"/>
     </row>
     <row r="45" spans="1:23" ht="16.5">
@@ -2722,14 +2767,14 @@
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="71"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
       <c r="G46" s="66"/>
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67"/>
-      <c r="K46" s="79"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="75"/>
       <c r="M46" s="75"/>
       <c r="N46" s="66"/>
@@ -2737,11 +2782,11 @@
       <c r="P46" s="75"/>
       <c r="Q46" s="67"/>
       <c r="R46" s="75"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="73"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="84"/>
     </row>
     <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="64"/>
@@ -2894,24 +2939,24 @@
       <c r="W52" s="73"/>
     </row>
     <row r="53" spans="1:23" ht="16.5">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="72"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="74"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="79"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
       <c r="N53" s="66"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="73"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="75"/>
       <c r="S53" s="72"/>
       <c r="T53" s="72"/>
       <c r="U53" s="72"/>
@@ -3300,7 +3345,7 @@
       <c r="D69" s="73"/>
       <c r="E69" s="72"/>
       <c r="F69" s="66"/>
-      <c r="G69" s="72"/>
+      <c r="G69" s="66"/>
       <c r="H69" s="74"/>
       <c r="I69" s="72"/>
       <c r="J69" s="74"/>
@@ -3449,7 +3494,7 @@
       <c r="C75" s="72"/>
       <c r="D75" s="73"/>
       <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="72"/>
       <c r="H75" s="74"/>
       <c r="I75" s="72"/>
@@ -3543,7 +3588,7 @@
       <c r="V78" s="72"/>
       <c r="W78" s="73"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="72"/>
       <c r="B79" s="72"/>
       <c r="C79" s="72"/>
@@ -3557,7 +3602,7 @@
       <c r="K79" s="79"/>
       <c r="L79" s="72"/>
       <c r="M79" s="72"/>
-      <c r="N79" s="72"/>
+      <c r="N79" s="66"/>
       <c r="O79" s="72"/>
       <c r="P79" s="72"/>
       <c r="Q79" s="74"/>
@@ -4962,6 +5007,10 @@
       <c r="P135" s="72"/>
       <c r="Q135" s="74"/>
       <c r="R135" s="73"/>
+      <c r="S135" s="72"/>
+      <c r="T135" s="72"/>
+      <c r="U135" s="72"/>
+      <c r="V135" s="72"/>
       <c r="W135" s="73"/>
     </row>
     <row r="136" spans="1:23">
@@ -5678,10 +5727,31 @@
       <c r="R169" s="73"/>
       <c r="W169" s="73"/>
     </row>
+    <row r="170" spans="1:23">
+      <c r="A170" s="72"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="73"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="79"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="72"/>
+      <c r="N170" s="72"/>
+      <c r="O170" s="72"/>
+      <c r="P170" s="72"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="73"/>
+      <c r="W170" s="73"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5696,7 +5766,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 V1:V1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5708,6 +5778,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5744,55 +5815,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>31</v>
-      </c>
       <c r="O1" s="32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>22</v>
@@ -5800,109 +5871,109 @@
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" ht="49.5">
       <c r="A2" s="33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O2" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="52" t="s">
-        <v>53</v>
-      </c>
       <c r="Q2" s="51" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:18" s="30" customFormat="1" ht="33">
       <c r="A3" s="33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="50" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="48" t="s">
-        <v>58</v>
-      </c>
       <c r="O3" s="51" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R3" s="51"/>
     </row>
@@ -5954,7 +6025,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="91" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -5969,34 +6040,34 @@
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>22</v>
@@ -6157,7 +6228,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6189,40 +6260,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6471,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6503,40 +6574,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6785,7 +6856,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6817,40 +6888,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -7101,7 +7172,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="96" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7133,40 +7204,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -7411,28 +7482,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
